--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSE 726\Projects\Project_2\Thesis\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B971BF2-A458-44BC-9402-96CCFB0C125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A4171-5070-431C-99D7-5720B6C6460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="737">
   <si>
     <t>Index</t>
   </si>
@@ -2559,6 +2559,46 @@
   </si>
   <si>
     <t>https://chat.openai.com/share/e64ccf98-7034-43a4-b27c-08a7d2c6cf1a</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/c2560d8d-34ae-45f9-b07b-03fc0ff426eb</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/4401bff3-fd40-43a3-ba43-39ac19466a64</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/295fe462-a631-4a0b-8385-c9bc93fd5a53</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/620561b4-7da5-4044-a2a5-981128000ac5</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/580347af-bf61-4e50-b1bd-e6e07ef7ed75</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/1791852d-74eb-4956-b99f-04b045275e40</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/baeba051-b71c-48fd-851d-70f94956f35f</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/6b5db595-530a-4fee-9814-69cc84609dd8</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/869ae716-42d3-4efc-8da9-a2c0d629d471</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/5de359c9-3b79-47be-aa7f-f01add2be59f</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -7716,7 +7756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -8055,8 +8095,8 @@
   <dimension ref="A1:P1939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B329" sqref="B329"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17304,6 +17344,9 @@
       <c r="A321">
         <v>320</v>
       </c>
+      <c r="B321" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="C321">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17323,6 +17366,9 @@
       <c r="A322">
         <v>321</v>
       </c>
+      <c r="B322" s="1" t="s">
+        <v>728</v>
+      </c>
       <c r="C322">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17342,6 +17388,9 @@
       <c r="A323">
         <v>322</v>
       </c>
+      <c r="B323" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="C323">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17361,6 +17410,9 @@
       <c r="A324">
         <v>323</v>
       </c>
+      <c r="B324" s="1" t="s">
+        <v>730</v>
+      </c>
       <c r="C324">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17380,6 +17432,9 @@
       <c r="A325">
         <v>324</v>
       </c>
+      <c r="B325" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="C325">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17399,6 +17454,9 @@
       <c r="A326">
         <v>325</v>
       </c>
+      <c r="B326" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="C326">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17418,6 +17476,9 @@
       <c r="A327">
         <v>326</v>
       </c>
+      <c r="B327" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="C327">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17437,6 +17498,9 @@
       <c r="A328">
         <v>327</v>
       </c>
+      <c r="B328" s="1" t="s">
+        <v>733</v>
+      </c>
       <c r="C328">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17456,6 +17520,9 @@
       <c r="A329">
         <v>328</v>
       </c>
+      <c r="B329" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="C329">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17475,6 +17542,9 @@
       <c r="A330">
         <v>329</v>
       </c>
+      <c r="B330" s="1" t="s">
+        <v>735</v>
+      </c>
       <c r="C330">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -17494,6 +17564,9 @@
       <c r="A331">
         <v>330</v>
       </c>
+      <c r="B331" s="1" t="s">
+        <v>736</v>
+      </c>
       <c r="C331">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -38415,17 +38488,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K182:P211"/>
+    <mergeCell ref="K212:P241"/>
+    <mergeCell ref="K242:P271"/>
+    <mergeCell ref="K272:P301"/>
+    <mergeCell ref="K302:P331"/>
     <mergeCell ref="K152:P181"/>
     <mergeCell ref="K2:P31"/>
     <mergeCell ref="K32:P61"/>
     <mergeCell ref="K62:P91"/>
     <mergeCell ref="K92:P121"/>
     <mergeCell ref="K122:P151"/>
-    <mergeCell ref="K182:P211"/>
-    <mergeCell ref="K212:P241"/>
-    <mergeCell ref="K242:P271"/>
-    <mergeCell ref="K272:P301"/>
-    <mergeCell ref="K302:P331"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
@@ -38747,6 +38820,17 @@
     <hyperlink ref="B318" r:id="rId316" xr:uid="{681675F6-DD7A-4612-A993-E1A3E861A192}"/>
     <hyperlink ref="B319" r:id="rId317" xr:uid="{69AC2FC6-9ACE-434F-8778-CB964A114FAC}"/>
     <hyperlink ref="B320" r:id="rId318" xr:uid="{9D08477D-5CA8-4505-B3B5-2C0D07962DBC}"/>
+    <hyperlink ref="B321" r:id="rId319" xr:uid="{DB1597D9-2B59-4D12-BD27-178AA2BAD520}"/>
+    <hyperlink ref="B322" r:id="rId320" xr:uid="{61F2CE8C-FD29-4626-A065-51CF74E5CFDF}"/>
+    <hyperlink ref="B323" r:id="rId321" xr:uid="{501BFB84-DB1A-4C26-9AD6-B40F371F8A46}"/>
+    <hyperlink ref="B324" r:id="rId322" xr:uid="{F8B7B3A3-4B2E-425E-BC39-6618D48B38E2}"/>
+    <hyperlink ref="B325" r:id="rId323" xr:uid="{3B6BD023-F56B-40D1-A170-F9C144F2D75B}"/>
+    <hyperlink ref="B326" r:id="rId324" xr:uid="{ABA26432-8D54-431C-A7A4-A41DD63F1917}"/>
+    <hyperlink ref="B327" r:id="rId325" xr:uid="{1535C9DE-F1E2-4DB8-96CE-01EEE3B468B7}"/>
+    <hyperlink ref="B328" r:id="rId326" xr:uid="{483209AF-C080-4735-8F15-7DBEC1DEA2F5}"/>
+    <hyperlink ref="B329" r:id="rId327" xr:uid="{80395AB6-B26D-4994-9178-192936EE0569}"/>
+    <hyperlink ref="B330" r:id="rId328" xr:uid="{959D1DFB-2010-47F0-9AC7-CD0F8781661A}"/>
+    <hyperlink ref="B331" r:id="rId329" xr:uid="{C23F564D-E079-474E-8770-E5189DAAE4BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/hienv_sfu_ca/Documents/Textbook/MSE898/Week012/MSE726_Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="989" documentId="13_ncr:1_{2C3A4171-5070-431C-99D7-5720B6C6460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{037845A2-0A3C-4955-96FB-FFC6585E4BC9}"/>
+  <xr:revisionPtr revIDLastSave="990" documentId="13_ncr:1_{2C3A4171-5070-431C-99D7-5720B6C6460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D8F84AF-AB58-4ABE-8586-182040AFB94A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3290,22 +3290,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -7995,18 +7995,18 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8038,14 +8038,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8069,174 +8069,174 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8291,8 +8291,8 @@
   <dimension ref="A1:Q1939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B392" sqref="B392"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8302,7 +8302,7 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9.140625" style="5"/>
+    <col min="11" max="16" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -8370,14 +8370,14 @@
         <f>D2+E2+F2+G2+H2+I2</f>
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2">
         <f>SUM(J2:J31)/30</f>
         <v>1.3333333333333333</v>
@@ -8416,12 +8416,12 @@
         <f t="shared" ref="J3:J66" si="1">D3+E3+F3+G3+H3+I3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8456,12 +8456,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8496,12 +8496,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8536,12 +8536,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -8576,12 +8576,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8616,12 +8616,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8656,12 +8656,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -8696,12 +8696,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8736,12 +8736,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -8776,12 +8776,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8816,12 +8816,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8856,12 +8856,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8896,12 +8896,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8936,12 +8936,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -8976,12 +8976,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -9016,12 +9016,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -9056,12 +9056,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -9096,12 +9096,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -9136,12 +9136,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -9176,12 +9176,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -9216,12 +9216,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -9256,12 +9256,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -9296,12 +9296,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -9336,12 +9336,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -9376,12 +9376,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -9416,12 +9416,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -9456,12 +9456,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -9496,12 +9496,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -9536,12 +9536,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -9576,14 +9576,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
       <c r="Q32">
         <f>SUM(J32:J61)/30</f>
         <v>2.4</v>
@@ -9622,12 +9622,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -9662,12 +9662,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -9702,12 +9702,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -9742,12 +9742,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -9782,12 +9782,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -9822,12 +9822,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -9862,12 +9862,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -9902,12 +9902,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -9942,12 +9942,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -9982,12 +9982,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -10022,12 +10022,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -10062,12 +10062,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -10102,12 +10102,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -10142,12 +10142,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -10182,12 +10182,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -10222,12 +10222,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -10262,12 +10262,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -10302,12 +10302,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -10342,12 +10342,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -10382,12 +10382,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -10422,12 +10422,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -10462,12 +10462,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -10502,12 +10502,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -10542,12 +10542,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -10582,12 +10582,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -10622,12 +10622,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -10662,12 +10662,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -10702,12 +10702,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -10742,12 +10742,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -10782,14 +10782,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
       <c r="Q62">
         <f>SUM(J62:J91)/30</f>
         <v>2.6666666666666665</v>
@@ -10828,12 +10828,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -10868,12 +10868,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -10908,12 +10908,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -10948,12 +10948,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -10988,12 +10988,12 @@
         <f t="shared" ref="J67:J130" si="3">D67+E67+F67+G67+H67+I67</f>
         <v>2</v>
       </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -11028,12 +11028,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -11068,12 +11068,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -11108,12 +11108,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -11148,12 +11148,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -11188,12 +11188,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -11228,12 +11228,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -11268,12 +11268,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -11308,12 +11308,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -11348,12 +11348,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -11388,12 +11388,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -11428,12 +11428,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -11468,12 +11468,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -11508,12 +11508,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -11548,12 +11548,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -11588,12 +11588,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -11628,12 +11628,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -11668,12 +11668,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -11708,12 +11708,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -11748,12 +11748,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -11788,12 +11788,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -11828,12 +11828,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -11868,12 +11868,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -11908,12 +11908,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -11948,12 +11948,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
     </row>
     <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -11988,14 +11988,14 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
       <c r="Q92">
         <f>SUM(J92:J121)/30</f>
         <v>2.7333333333333334</v>
@@ -12034,12 +12034,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -12074,12 +12074,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -12114,12 +12114,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -12154,12 +12154,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -12194,12 +12194,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -12234,12 +12234,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -12274,12 +12274,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -12314,12 +12314,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -12354,12 +12354,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -12394,12 +12394,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -12434,12 +12434,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -12474,12 +12474,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -12514,12 +12514,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -12554,12 +12554,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -12594,12 +12594,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -12634,12 +12634,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -12674,12 +12674,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -12714,12 +12714,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -12754,12 +12754,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -12794,12 +12794,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -12834,12 +12834,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -12874,12 +12874,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -12914,12 +12914,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -12954,12 +12954,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -12994,12 +12994,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -13034,12 +13034,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -13074,12 +13074,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -13114,12 +13114,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -13154,12 +13154,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -13194,14 +13194,14 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="K122" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
       <c r="Q122">
         <f>SUM(J122:J151)/30</f>
         <v>2.0666666666666669</v>
@@ -13240,12 +13240,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -13280,12 +13280,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -13320,12 +13320,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -13360,12 +13360,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -13400,12 +13400,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -13440,12 +13440,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -13480,12 +13480,12 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -13520,12 +13520,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -13560,12 +13560,12 @@
         <f t="shared" ref="J131:J194" si="5">D131+E131+F131+G131+H131+I131</f>
         <v>3</v>
       </c>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -13600,12 +13600,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="7"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -13640,12 +13640,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -13680,12 +13680,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -13720,12 +13720,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -13760,12 +13760,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -13800,12 +13800,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -13840,12 +13840,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -13880,12 +13880,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -13920,12 +13920,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -13960,12 +13960,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -14000,12 +14000,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -14040,12 +14040,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -14080,12 +14080,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -14120,12 +14120,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -14160,12 +14160,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -14200,12 +14200,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -14240,12 +14240,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -14280,12 +14280,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -14320,12 +14320,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -14360,12 +14360,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -14400,14 +14400,14 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K152" s="4" t="s">
+      <c r="K152" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
       <c r="Q152">
         <f>SUM(J152:J181)/30</f>
         <v>2.3333333333333335</v>
@@ -14446,12 +14446,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -14486,12 +14486,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -14526,12 +14526,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -14566,12 +14566,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -14606,12 +14606,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
-      <c r="P157" s="4"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -14646,12 +14646,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -14686,12 +14686,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -14726,12 +14726,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -14766,12 +14766,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -14806,12 +14806,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -14846,12 +14846,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -14886,12 +14886,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -14926,12 +14926,12 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -14966,12 +14966,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -15006,12 +15006,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -15046,12 +15046,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -15086,12 +15086,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-      <c r="P169" s="4"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -15126,12 +15126,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -15166,12 +15166,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -15206,12 +15206,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -15246,12 +15246,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -15286,12 +15286,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -15326,12 +15326,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="4"/>
-      <c r="P175" s="4"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -15366,12 +15366,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -15406,12 +15406,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="4"/>
-      <c r="P177" s="4"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -15446,12 +15446,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="4"/>
-      <c r="P178" s="4"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -15486,12 +15486,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -15526,12 +15526,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="4"/>
-      <c r="P180" s="4"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -15566,12 +15566,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="O181" s="4"/>
-      <c r="P181" s="4"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -15606,14 +15606,14 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K182" s="4" t="s">
+      <c r="K182" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="O182" s="4"/>
-      <c r="P182" s="4"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
       <c r="Q182">
         <f>SUM(J182:J211)/30</f>
         <v>2.6333333333333333</v>
@@ -15652,12 +15652,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-      <c r="O183" s="4"/>
-      <c r="P183" s="4"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -15692,12 +15692,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-      <c r="M184" s="4"/>
-      <c r="N184" s="4"/>
-      <c r="O184" s="4"/>
-      <c r="P184" s="4"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -15732,12 +15732,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
-      <c r="M185" s="4"/>
-      <c r="N185" s="4"/>
-      <c r="O185" s="4"/>
-      <c r="P185" s="4"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -15772,12 +15772,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
-      <c r="M186" s="4"/>
-      <c r="N186" s="4"/>
-      <c r="O186" s="4"/>
-      <c r="P186" s="4"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -15812,12 +15812,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-      <c r="P187" s="4"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -15852,12 +15852,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -15892,12 +15892,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -15932,12 +15932,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="4"/>
-      <c r="P190" s="4"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -15972,12 +15972,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
@@ -16012,12 +16012,12 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7"/>
+      <c r="P192" s="7"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -16052,12 +16052,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="4"/>
-      <c r="P193" s="4"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7"/>
+      <c r="P193" s="7"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -16092,12 +16092,12 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-      <c r="M194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="4"/>
-      <c r="P194" s="4"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -16132,12 +16132,12 @@
         <f t="shared" ref="J195:J258" si="7">D195+E195+F195+G195+H195+I195</f>
         <v>2</v>
       </c>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -16172,12 +16172,12 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="4"/>
-      <c r="P196" s="4"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -16212,12 +16212,12 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="K197" s="4"/>
-      <c r="L197" s="4"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -16252,12 +16252,12 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="K198" s="4"/>
-      <c r="L198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7"/>
+      <c r="P198" s="7"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -16292,12 +16292,12 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -16332,12 +16332,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K200" s="4"/>
-      <c r="L200" s="4"/>
-      <c r="M200" s="4"/>
-      <c r="N200" s="4"/>
-      <c r="O200" s="4"/>
-      <c r="P200" s="4"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="7"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="7"/>
+      <c r="P200" s="7"/>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -16372,12 +16372,12 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="7"/>
+      <c r="N201" s="7"/>
+      <c r="O201" s="7"/>
+      <c r="P201" s="7"/>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -16412,12 +16412,12 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="K202" s="4"/>
-      <c r="L202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
+      <c r="K202" s="7"/>
+      <c r="L202" s="7"/>
+      <c r="M202" s="7"/>
+      <c r="N202" s="7"/>
+      <c r="O202" s="7"/>
+      <c r="P202" s="7"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -16452,12 +16452,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-      <c r="P203" s="4"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7"/>
+      <c r="N203" s="7"/>
+      <c r="O203" s="7"/>
+      <c r="P203" s="7"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -16492,12 +16492,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="7"/>
+      <c r="N204" s="7"/>
+      <c r="O204" s="7"/>
+      <c r="P204" s="7"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -16532,12 +16532,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-      <c r="P205" s="4"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="7"/>
+      <c r="N205" s="7"/>
+      <c r="O205" s="7"/>
+      <c r="P205" s="7"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -16572,12 +16572,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
+      <c r="K206" s="7"/>
+      <c r="L206" s="7"/>
+      <c r="M206" s="7"/>
+      <c r="N206" s="7"/>
+      <c r="O206" s="7"/>
+      <c r="P206" s="7"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -16612,12 +16612,12 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
+      <c r="K207" s="7"/>
+      <c r="L207" s="7"/>
+      <c r="M207" s="7"/>
+      <c r="N207" s="7"/>
+      <c r="O207" s="7"/>
+      <c r="P207" s="7"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -16652,12 +16652,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
+      <c r="K208" s="7"/>
+      <c r="L208" s="7"/>
+      <c r="M208" s="7"/>
+      <c r="N208" s="7"/>
+      <c r="O208" s="7"/>
+      <c r="P208" s="7"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -16692,12 +16692,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-      <c r="P209" s="4"/>
+      <c r="K209" s="7"/>
+      <c r="L209" s="7"/>
+      <c r="M209" s="7"/>
+      <c r="N209" s="7"/>
+      <c r="O209" s="7"/>
+      <c r="P209" s="7"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
@@ -16732,12 +16732,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K210" s="4"/>
-      <c r="L210" s="4"/>
-      <c r="M210" s="4"/>
-      <c r="N210" s="4"/>
-      <c r="O210" s="4"/>
-      <c r="P210" s="4"/>
+      <c r="K210" s="7"/>
+      <c r="L210" s="7"/>
+      <c r="M210" s="7"/>
+      <c r="N210" s="7"/>
+      <c r="O210" s="7"/>
+      <c r="P210" s="7"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211">
@@ -16772,12 +16772,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K211" s="4"/>
-      <c r="L211" s="4"/>
-      <c r="M211" s="4"/>
-      <c r="N211" s="4"/>
-      <c r="O211" s="4"/>
-      <c r="P211" s="4"/>
+      <c r="K211" s="7"/>
+      <c r="L211" s="7"/>
+      <c r="M211" s="7"/>
+      <c r="N211" s="7"/>
+      <c r="O211" s="7"/>
+      <c r="P211" s="7"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -16794,14 +16794,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K212" s="4" t="s">
+      <c r="K212" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="L212" s="4"/>
-      <c r="M212" s="4"/>
-      <c r="N212" s="4"/>
-      <c r="O212" s="4"/>
-      <c r="P212" s="4"/>
+      <c r="L212" s="7"/>
+      <c r="M212" s="7"/>
+      <c r="N212" s="7"/>
+      <c r="O212" s="7"/>
+      <c r="P212" s="7"/>
       <c r="Q212">
         <f>SUM(J212:J241)/30</f>
         <v>0</v>
@@ -16822,12 +16822,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
-      <c r="M213" s="4"/>
-      <c r="N213" s="4"/>
-      <c r="O213" s="4"/>
-      <c r="P213" s="4"/>
+      <c r="K213" s="7"/>
+      <c r="L213" s="7"/>
+      <c r="M213" s="7"/>
+      <c r="N213" s="7"/>
+      <c r="O213" s="7"/>
+      <c r="P213" s="7"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -16844,12 +16844,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K214" s="4"/>
-      <c r="L214" s="4"/>
-      <c r="M214" s="4"/>
-      <c r="N214" s="4"/>
-      <c r="O214" s="4"/>
-      <c r="P214" s="4"/>
+      <c r="K214" s="7"/>
+      <c r="L214" s="7"/>
+      <c r="M214" s="7"/>
+      <c r="N214" s="7"/>
+      <c r="O214" s="7"/>
+      <c r="P214" s="7"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -16866,12 +16866,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
-      <c r="M215" s="4"/>
-      <c r="N215" s="4"/>
-      <c r="O215" s="4"/>
-      <c r="P215" s="4"/>
+      <c r="K215" s="7"/>
+      <c r="L215" s="7"/>
+      <c r="M215" s="7"/>
+      <c r="N215" s="7"/>
+      <c r="O215" s="7"/>
+      <c r="P215" s="7"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -16888,12 +16888,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
-      <c r="M216" s="4"/>
-      <c r="N216" s="4"/>
-      <c r="O216" s="4"/>
-      <c r="P216" s="4"/>
+      <c r="K216" s="7"/>
+      <c r="L216" s="7"/>
+      <c r="M216" s="7"/>
+      <c r="N216" s="7"/>
+      <c r="O216" s="7"/>
+      <c r="P216" s="7"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -16910,12 +16910,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4"/>
-      <c r="O217" s="4"/>
-      <c r="P217" s="4"/>
+      <c r="K217" s="7"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="7"/>
+      <c r="N217" s="7"/>
+      <c r="O217" s="7"/>
+      <c r="P217" s="7"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -16932,12 +16932,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
-      <c r="M218" s="4"/>
-      <c r="N218" s="4"/>
-      <c r="O218" s="4"/>
-      <c r="P218" s="4"/>
+      <c r="K218" s="7"/>
+      <c r="L218" s="7"/>
+      <c r="M218" s="7"/>
+      <c r="N218" s="7"/>
+      <c r="O218" s="7"/>
+      <c r="P218" s="7"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -16954,12 +16954,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
+      <c r="K219" s="7"/>
+      <c r="L219" s="7"/>
+      <c r="M219" s="7"/>
+      <c r="N219" s="7"/>
+      <c r="O219" s="7"/>
+      <c r="P219" s="7"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220">
@@ -16976,12 +16976,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="4"/>
-      <c r="O220" s="4"/>
-      <c r="P220" s="4"/>
+      <c r="K220" s="7"/>
+      <c r="L220" s="7"/>
+      <c r="M220" s="7"/>
+      <c r="N220" s="7"/>
+      <c r="O220" s="7"/>
+      <c r="P220" s="7"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -16998,12 +16998,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
-      <c r="M221" s="4"/>
-      <c r="N221" s="4"/>
-      <c r="O221" s="4"/>
-      <c r="P221" s="4"/>
+      <c r="K221" s="7"/>
+      <c r="L221" s="7"/>
+      <c r="M221" s="7"/>
+      <c r="N221" s="7"/>
+      <c r="O221" s="7"/>
+      <c r="P221" s="7"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -17020,12 +17020,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
-      <c r="M222" s="4"/>
-      <c r="N222" s="4"/>
-      <c r="O222" s="4"/>
-      <c r="P222" s="4"/>
+      <c r="K222" s="7"/>
+      <c r="L222" s="7"/>
+      <c r="M222" s="7"/>
+      <c r="N222" s="7"/>
+      <c r="O222" s="7"/>
+      <c r="P222" s="7"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -17042,12 +17042,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
-      <c r="M223" s="4"/>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-      <c r="P223" s="4"/>
+      <c r="K223" s="7"/>
+      <c r="L223" s="7"/>
+      <c r="M223" s="7"/>
+      <c r="N223" s="7"/>
+      <c r="O223" s="7"/>
+      <c r="P223" s="7"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -17064,12 +17064,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K224" s="4"/>
-      <c r="L224" s="4"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="4"/>
-      <c r="O224" s="4"/>
-      <c r="P224" s="4"/>
+      <c r="K224" s="7"/>
+      <c r="L224" s="7"/>
+      <c r="M224" s="7"/>
+      <c r="N224" s="7"/>
+      <c r="O224" s="7"/>
+      <c r="P224" s="7"/>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -17086,12 +17086,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="4"/>
-      <c r="O225" s="4"/>
-      <c r="P225" s="4"/>
+      <c r="K225" s="7"/>
+      <c r="L225" s="7"/>
+      <c r="M225" s="7"/>
+      <c r="N225" s="7"/>
+      <c r="O225" s="7"/>
+      <c r="P225" s="7"/>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -17108,12 +17108,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
-      <c r="M226" s="4"/>
-      <c r="N226" s="4"/>
-      <c r="O226" s="4"/>
-      <c r="P226" s="4"/>
+      <c r="K226" s="7"/>
+      <c r="L226" s="7"/>
+      <c r="M226" s="7"/>
+      <c r="N226" s="7"/>
+      <c r="O226" s="7"/>
+      <c r="P226" s="7"/>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -17130,12 +17130,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K227" s="4"/>
-      <c r="L227" s="4"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="4"/>
-      <c r="P227" s="4"/>
+      <c r="K227" s="7"/>
+      <c r="L227" s="7"/>
+      <c r="M227" s="7"/>
+      <c r="N227" s="7"/>
+      <c r="O227" s="7"/>
+      <c r="P227" s="7"/>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -17152,12 +17152,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K228" s="4"/>
-      <c r="L228" s="4"/>
-      <c r="M228" s="4"/>
-      <c r="N228" s="4"/>
-      <c r="O228" s="4"/>
-      <c r="P228" s="4"/>
+      <c r="K228" s="7"/>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7"/>
+      <c r="N228" s="7"/>
+      <c r="O228" s="7"/>
+      <c r="P228" s="7"/>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -17174,12 +17174,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
-      <c r="M229" s="4"/>
-      <c r="N229" s="4"/>
-      <c r="O229" s="4"/>
-      <c r="P229" s="4"/>
+      <c r="K229" s="7"/>
+      <c r="L229" s="7"/>
+      <c r="M229" s="7"/>
+      <c r="N229" s="7"/>
+      <c r="O229" s="7"/>
+      <c r="P229" s="7"/>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -17196,12 +17196,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
-      <c r="N230" s="4"/>
-      <c r="O230" s="4"/>
-      <c r="P230" s="4"/>
+      <c r="K230" s="7"/>
+      <c r="L230" s="7"/>
+      <c r="M230" s="7"/>
+      <c r="N230" s="7"/>
+      <c r="O230" s="7"/>
+      <c r="P230" s="7"/>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -17218,12 +17218,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
-      <c r="M231" s="4"/>
-      <c r="N231" s="4"/>
-      <c r="O231" s="4"/>
-      <c r="P231" s="4"/>
+      <c r="K231" s="7"/>
+      <c r="L231" s="7"/>
+      <c r="M231" s="7"/>
+      <c r="N231" s="7"/>
+      <c r="O231" s="7"/>
+      <c r="P231" s="7"/>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -17240,12 +17240,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K232" s="4"/>
-      <c r="L232" s="4"/>
-      <c r="M232" s="4"/>
-      <c r="N232" s="4"/>
-      <c r="O232" s="4"/>
-      <c r="P232" s="4"/>
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="7"/>
+      <c r="N232" s="7"/>
+      <c r="O232" s="7"/>
+      <c r="P232" s="7"/>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -17262,12 +17262,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
-      <c r="M233" s="4"/>
-      <c r="N233" s="4"/>
-      <c r="O233" s="4"/>
-      <c r="P233" s="4"/>
+      <c r="K233" s="7"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7"/>
+      <c r="N233" s="7"/>
+      <c r="O233" s="7"/>
+      <c r="P233" s="7"/>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -17284,12 +17284,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K234" s="4"/>
-      <c r="L234" s="4"/>
-      <c r="M234" s="4"/>
-      <c r="N234" s="4"/>
-      <c r="O234" s="4"/>
-      <c r="P234" s="4"/>
+      <c r="K234" s="7"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="7"/>
+      <c r="N234" s="7"/>
+      <c r="O234" s="7"/>
+      <c r="P234" s="7"/>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -17306,12 +17306,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K235" s="4"/>
-      <c r="L235" s="4"/>
-      <c r="M235" s="4"/>
-      <c r="N235" s="4"/>
-      <c r="O235" s="4"/>
-      <c r="P235" s="4"/>
+      <c r="K235" s="7"/>
+      <c r="L235" s="7"/>
+      <c r="M235" s="7"/>
+      <c r="N235" s="7"/>
+      <c r="O235" s="7"/>
+      <c r="P235" s="7"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -17328,12 +17328,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K236" s="4"/>
-      <c r="L236" s="4"/>
-      <c r="M236" s="4"/>
-      <c r="N236" s="4"/>
-      <c r="O236" s="4"/>
-      <c r="P236" s="4"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7"/>
+      <c r="N236" s="7"/>
+      <c r="O236" s="7"/>
+      <c r="P236" s="7"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -17350,12 +17350,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K237" s="4"/>
-      <c r="L237" s="4"/>
-      <c r="M237" s="4"/>
-      <c r="N237" s="4"/>
-      <c r="O237" s="4"/>
-      <c r="P237" s="4"/>
+      <c r="K237" s="7"/>
+      <c r="L237" s="7"/>
+      <c r="M237" s="7"/>
+      <c r="N237" s="7"/>
+      <c r="O237" s="7"/>
+      <c r="P237" s="7"/>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -17372,12 +17372,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K238" s="4"/>
-      <c r="L238" s="4"/>
-      <c r="M238" s="4"/>
-      <c r="N238" s="4"/>
-      <c r="O238" s="4"/>
-      <c r="P238" s="4"/>
+      <c r="K238" s="7"/>
+      <c r="L238" s="7"/>
+      <c r="M238" s="7"/>
+      <c r="N238" s="7"/>
+      <c r="O238" s="7"/>
+      <c r="P238" s="7"/>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -17394,12 +17394,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K239" s="4"/>
-      <c r="L239" s="4"/>
-      <c r="M239" s="4"/>
-      <c r="N239" s="4"/>
-      <c r="O239" s="4"/>
-      <c r="P239" s="4"/>
+      <c r="K239" s="7"/>
+      <c r="L239" s="7"/>
+      <c r="M239" s="7"/>
+      <c r="N239" s="7"/>
+      <c r="O239" s="7"/>
+      <c r="P239" s="7"/>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -17416,12 +17416,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K240" s="4"/>
-      <c r="L240" s="4"/>
-      <c r="M240" s="4"/>
-      <c r="N240" s="4"/>
-      <c r="O240" s="4"/>
-      <c r="P240" s="4"/>
+      <c r="K240" s="7"/>
+      <c r="L240" s="7"/>
+      <c r="M240" s="7"/>
+      <c r="N240" s="7"/>
+      <c r="O240" s="7"/>
+      <c r="P240" s="7"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241">
@@ -17438,12 +17438,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K241" s="4"/>
-      <c r="L241" s="4"/>
-      <c r="M241" s="4"/>
-      <c r="N241" s="4"/>
-      <c r="O241" s="4"/>
-      <c r="P241" s="4"/>
+      <c r="K241" s="7"/>
+      <c r="L241" s="7"/>
+      <c r="M241" s="7"/>
+      <c r="N241" s="7"/>
+      <c r="O241" s="7"/>
+      <c r="P241" s="7"/>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242">
@@ -17460,14 +17460,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K242" s="4" t="s">
+      <c r="K242" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="L242" s="4"/>
-      <c r="M242" s="4"/>
-      <c r="N242" s="4"/>
-      <c r="O242" s="4"/>
-      <c r="P242" s="4"/>
+      <c r="L242" s="7"/>
+      <c r="M242" s="7"/>
+      <c r="N242" s="7"/>
+      <c r="O242" s="7"/>
+      <c r="P242" s="7"/>
       <c r="Q242">
         <f>SUM(J242:J271)/30</f>
         <v>0</v>
@@ -17488,12 +17488,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K243" s="4"/>
-      <c r="L243" s="4"/>
-      <c r="M243" s="4"/>
-      <c r="N243" s="4"/>
-      <c r="O243" s="4"/>
-      <c r="P243" s="4"/>
+      <c r="K243" s="7"/>
+      <c r="L243" s="7"/>
+      <c r="M243" s="7"/>
+      <c r="N243" s="7"/>
+      <c r="O243" s="7"/>
+      <c r="P243" s="7"/>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -17510,12 +17510,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
-      <c r="M244" s="4"/>
-      <c r="N244" s="4"/>
-      <c r="O244" s="4"/>
-      <c r="P244" s="4"/>
+      <c r="K244" s="7"/>
+      <c r="L244" s="7"/>
+      <c r="M244" s="7"/>
+      <c r="N244" s="7"/>
+      <c r="O244" s="7"/>
+      <c r="P244" s="7"/>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -17532,12 +17532,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K245" s="4"/>
-      <c r="L245" s="4"/>
-      <c r="M245" s="4"/>
-      <c r="N245" s="4"/>
-      <c r="O245" s="4"/>
-      <c r="P245" s="4"/>
+      <c r="K245" s="7"/>
+      <c r="L245" s="7"/>
+      <c r="M245" s="7"/>
+      <c r="N245" s="7"/>
+      <c r="O245" s="7"/>
+      <c r="P245" s="7"/>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -17554,12 +17554,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K246" s="4"/>
-      <c r="L246" s="4"/>
-      <c r="M246" s="4"/>
-      <c r="N246" s="4"/>
-      <c r="O246" s="4"/>
-      <c r="P246" s="4"/>
+      <c r="K246" s="7"/>
+      <c r="L246" s="7"/>
+      <c r="M246" s="7"/>
+      <c r="N246" s="7"/>
+      <c r="O246" s="7"/>
+      <c r="P246" s="7"/>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -17576,12 +17576,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K247" s="4"/>
-      <c r="L247" s="4"/>
-      <c r="M247" s="4"/>
-      <c r="N247" s="4"/>
-      <c r="O247" s="4"/>
-      <c r="P247" s="4"/>
+      <c r="K247" s="7"/>
+      <c r="L247" s="7"/>
+      <c r="M247" s="7"/>
+      <c r="N247" s="7"/>
+      <c r="O247" s="7"/>
+      <c r="P247" s="7"/>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -17598,12 +17598,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K248" s="4"/>
-      <c r="L248" s="4"/>
-      <c r="M248" s="4"/>
-      <c r="N248" s="4"/>
-      <c r="O248" s="4"/>
-      <c r="P248" s="4"/>
+      <c r="K248" s="7"/>
+      <c r="L248" s="7"/>
+      <c r="M248" s="7"/>
+      <c r="N248" s="7"/>
+      <c r="O248" s="7"/>
+      <c r="P248" s="7"/>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -17620,12 +17620,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K249" s="4"/>
-      <c r="L249" s="4"/>
-      <c r="M249" s="4"/>
-      <c r="N249" s="4"/>
-      <c r="O249" s="4"/>
-      <c r="P249" s="4"/>
+      <c r="K249" s="7"/>
+      <c r="L249" s="7"/>
+      <c r="M249" s="7"/>
+      <c r="N249" s="7"/>
+      <c r="O249" s="7"/>
+      <c r="P249" s="7"/>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -17642,12 +17642,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K250" s="4"/>
-      <c r="L250" s="4"/>
-      <c r="M250" s="4"/>
-      <c r="N250" s="4"/>
-      <c r="O250" s="4"/>
-      <c r="P250" s="4"/>
+      <c r="K250" s="7"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="7"/>
+      <c r="N250" s="7"/>
+      <c r="O250" s="7"/>
+      <c r="P250" s="7"/>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -17664,12 +17664,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K251" s="4"/>
-      <c r="L251" s="4"/>
-      <c r="M251" s="4"/>
-      <c r="N251" s="4"/>
-      <c r="O251" s="4"/>
-      <c r="P251" s="4"/>
+      <c r="K251" s="7"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="7"/>
+      <c r="N251" s="7"/>
+      <c r="O251" s="7"/>
+      <c r="P251" s="7"/>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252">
@@ -17686,12 +17686,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
-      <c r="M252" s="4"/>
-      <c r="N252" s="4"/>
-      <c r="O252" s="4"/>
-      <c r="P252" s="4"/>
+      <c r="K252" s="7"/>
+      <c r="L252" s="7"/>
+      <c r="M252" s="7"/>
+      <c r="N252" s="7"/>
+      <c r="O252" s="7"/>
+      <c r="P252" s="7"/>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253">
@@ -17708,12 +17708,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K253" s="4"/>
-      <c r="L253" s="4"/>
-      <c r="M253" s="4"/>
-      <c r="N253" s="4"/>
-      <c r="O253" s="4"/>
-      <c r="P253" s="4"/>
+      <c r="K253" s="7"/>
+      <c r="L253" s="7"/>
+      <c r="M253" s="7"/>
+      <c r="N253" s="7"/>
+      <c r="O253" s="7"/>
+      <c r="P253" s="7"/>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254">
@@ -17730,12 +17730,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K254" s="4"/>
-      <c r="L254" s="4"/>
-      <c r="M254" s="4"/>
-      <c r="N254" s="4"/>
-      <c r="O254" s="4"/>
-      <c r="P254" s="4"/>
+      <c r="K254" s="7"/>
+      <c r="L254" s="7"/>
+      <c r="M254" s="7"/>
+      <c r="N254" s="7"/>
+      <c r="O254" s="7"/>
+      <c r="P254" s="7"/>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255">
@@ -17752,12 +17752,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K255" s="4"/>
-      <c r="L255" s="4"/>
-      <c r="M255" s="4"/>
-      <c r="N255" s="4"/>
-      <c r="O255" s="4"/>
-      <c r="P255" s="4"/>
+      <c r="K255" s="7"/>
+      <c r="L255" s="7"/>
+      <c r="M255" s="7"/>
+      <c r="N255" s="7"/>
+      <c r="O255" s="7"/>
+      <c r="P255" s="7"/>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -17774,12 +17774,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K256" s="4"/>
-      <c r="L256" s="4"/>
-      <c r="M256" s="4"/>
-      <c r="N256" s="4"/>
-      <c r="O256" s="4"/>
-      <c r="P256" s="4"/>
+      <c r="K256" s="7"/>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7"/>
+      <c r="N256" s="7"/>
+      <c r="O256" s="7"/>
+      <c r="P256" s="7"/>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257">
@@ -17796,12 +17796,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K257" s="4"/>
-      <c r="L257" s="4"/>
-      <c r="M257" s="4"/>
-      <c r="N257" s="4"/>
-      <c r="O257" s="4"/>
-      <c r="P257" s="4"/>
+      <c r="K257" s="7"/>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7"/>
+      <c r="N257" s="7"/>
+      <c r="O257" s="7"/>
+      <c r="P257" s="7"/>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258">
@@ -17818,12 +17818,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K258" s="4"/>
-      <c r="L258" s="4"/>
-      <c r="M258" s="4"/>
-      <c r="N258" s="4"/>
-      <c r="O258" s="4"/>
-      <c r="P258" s="4"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="7"/>
+      <c r="M258" s="7"/>
+      <c r="N258" s="7"/>
+      <c r="O258" s="7"/>
+      <c r="P258" s="7"/>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259">
@@ -17840,12 +17840,12 @@
         <f t="shared" ref="J259:J322" si="9">D259+E259+F259+G259+H259+I259</f>
         <v>0</v>
       </c>
-      <c r="K259" s="4"/>
-      <c r="L259" s="4"/>
-      <c r="M259" s="4"/>
-      <c r="N259" s="4"/>
-      <c r="O259" s="4"/>
-      <c r="P259" s="4"/>
+      <c r="K259" s="7"/>
+      <c r="L259" s="7"/>
+      <c r="M259" s="7"/>
+      <c r="N259" s="7"/>
+      <c r="O259" s="7"/>
+      <c r="P259" s="7"/>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260">
@@ -17862,12 +17862,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K260" s="4"/>
-      <c r="L260" s="4"/>
-      <c r="M260" s="4"/>
-      <c r="N260" s="4"/>
-      <c r="O260" s="4"/>
-      <c r="P260" s="4"/>
+      <c r="K260" s="7"/>
+      <c r="L260" s="7"/>
+      <c r="M260" s="7"/>
+      <c r="N260" s="7"/>
+      <c r="O260" s="7"/>
+      <c r="P260" s="7"/>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261">
@@ -17884,12 +17884,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K261" s="4"/>
-      <c r="L261" s="4"/>
-      <c r="M261" s="4"/>
-      <c r="N261" s="4"/>
-      <c r="O261" s="4"/>
-      <c r="P261" s="4"/>
+      <c r="K261" s="7"/>
+      <c r="L261" s="7"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="7"/>
+      <c r="O261" s="7"/>
+      <c r="P261" s="7"/>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262">
@@ -17906,12 +17906,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K262" s="4"/>
-      <c r="L262" s="4"/>
-      <c r="M262" s="4"/>
-      <c r="N262" s="4"/>
-      <c r="O262" s="4"/>
-      <c r="P262" s="4"/>
+      <c r="K262" s="7"/>
+      <c r="L262" s="7"/>
+      <c r="M262" s="7"/>
+      <c r="N262" s="7"/>
+      <c r="O262" s="7"/>
+      <c r="P262" s="7"/>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263">
@@ -17928,12 +17928,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K263" s="4"/>
-      <c r="L263" s="4"/>
-      <c r="M263" s="4"/>
-      <c r="N263" s="4"/>
-      <c r="O263" s="4"/>
-      <c r="P263" s="4"/>
+      <c r="K263" s="7"/>
+      <c r="L263" s="7"/>
+      <c r="M263" s="7"/>
+      <c r="N263" s="7"/>
+      <c r="O263" s="7"/>
+      <c r="P263" s="7"/>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -17950,12 +17950,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K264" s="4"/>
-      <c r="L264" s="4"/>
-      <c r="M264" s="4"/>
-      <c r="N264" s="4"/>
-      <c r="O264" s="4"/>
-      <c r="P264" s="4"/>
+      <c r="K264" s="7"/>
+      <c r="L264" s="7"/>
+      <c r="M264" s="7"/>
+      <c r="N264" s="7"/>
+      <c r="O264" s="7"/>
+      <c r="P264" s="7"/>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265">
@@ -17972,12 +17972,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K265" s="4"/>
-      <c r="L265" s="4"/>
-      <c r="M265" s="4"/>
-      <c r="N265" s="4"/>
-      <c r="O265" s="4"/>
-      <c r="P265" s="4"/>
+      <c r="K265" s="7"/>
+      <c r="L265" s="7"/>
+      <c r="M265" s="7"/>
+      <c r="N265" s="7"/>
+      <c r="O265" s="7"/>
+      <c r="P265" s="7"/>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266">
@@ -17994,12 +17994,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K266" s="4"/>
-      <c r="L266" s="4"/>
-      <c r="M266" s="4"/>
-      <c r="N266" s="4"/>
-      <c r="O266" s="4"/>
-      <c r="P266" s="4"/>
+      <c r="K266" s="7"/>
+      <c r="L266" s="7"/>
+      <c r="M266" s="7"/>
+      <c r="N266" s="7"/>
+      <c r="O266" s="7"/>
+      <c r="P266" s="7"/>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267">
@@ -18016,12 +18016,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K267" s="4"/>
-      <c r="L267" s="4"/>
-      <c r="M267" s="4"/>
-      <c r="N267" s="4"/>
-      <c r="O267" s="4"/>
-      <c r="P267" s="4"/>
+      <c r="K267" s="7"/>
+      <c r="L267" s="7"/>
+      <c r="M267" s="7"/>
+      <c r="N267" s="7"/>
+      <c r="O267" s="7"/>
+      <c r="P267" s="7"/>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -18038,12 +18038,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
-      <c r="M268" s="4"/>
-      <c r="N268" s="4"/>
-      <c r="O268" s="4"/>
-      <c r="P268" s="4"/>
+      <c r="K268" s="7"/>
+      <c r="L268" s="7"/>
+      <c r="M268" s="7"/>
+      <c r="N268" s="7"/>
+      <c r="O268" s="7"/>
+      <c r="P268" s="7"/>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -18060,12 +18060,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K269" s="4"/>
-      <c r="L269" s="4"/>
-      <c r="M269" s="4"/>
-      <c r="N269" s="4"/>
-      <c r="O269" s="4"/>
-      <c r="P269" s="4"/>
+      <c r="K269" s="7"/>
+      <c r="L269" s="7"/>
+      <c r="M269" s="7"/>
+      <c r="N269" s="7"/>
+      <c r="O269" s="7"/>
+      <c r="P269" s="7"/>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270">
@@ -18082,12 +18082,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K270" s="4"/>
-      <c r="L270" s="4"/>
-      <c r="M270" s="4"/>
-      <c r="N270" s="4"/>
-      <c r="O270" s="4"/>
-      <c r="P270" s="4"/>
+      <c r="K270" s="7"/>
+      <c r="L270" s="7"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="7"/>
+      <c r="O270" s="7"/>
+      <c r="P270" s="7"/>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271">
@@ -18104,12 +18104,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
-      <c r="M271" s="4"/>
-      <c r="N271" s="4"/>
-      <c r="O271" s="4"/>
-      <c r="P271" s="4"/>
+      <c r="K271" s="7"/>
+      <c r="L271" s="7"/>
+      <c r="M271" s="7"/>
+      <c r="N271" s="7"/>
+      <c r="O271" s="7"/>
+      <c r="P271" s="7"/>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -18126,14 +18126,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K272" s="4" t="s">
+      <c r="K272" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="L272" s="4"/>
-      <c r="M272" s="4"/>
-      <c r="N272" s="4"/>
-      <c r="O272" s="4"/>
-      <c r="P272" s="4"/>
+      <c r="L272" s="7"/>
+      <c r="M272" s="7"/>
+      <c r="N272" s="7"/>
+      <c r="O272" s="7"/>
+      <c r="P272" s="7"/>
       <c r="Q272">
         <f>SUM(J272:J301)/30</f>
         <v>0</v>
@@ -18154,12 +18154,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K273" s="4"/>
-      <c r="L273" s="4"/>
-      <c r="M273" s="4"/>
-      <c r="N273" s="4"/>
-      <c r="O273" s="4"/>
-      <c r="P273" s="4"/>
+      <c r="K273" s="7"/>
+      <c r="L273" s="7"/>
+      <c r="M273" s="7"/>
+      <c r="N273" s="7"/>
+      <c r="O273" s="7"/>
+      <c r="P273" s="7"/>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274">
@@ -18176,12 +18176,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
-      <c r="M274" s="4"/>
-      <c r="N274" s="4"/>
-      <c r="O274" s="4"/>
-      <c r="P274" s="4"/>
+      <c r="K274" s="7"/>
+      <c r="L274" s="7"/>
+      <c r="M274" s="7"/>
+      <c r="N274" s="7"/>
+      <c r="O274" s="7"/>
+      <c r="P274" s="7"/>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275">
@@ -18198,12 +18198,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
-      <c r="M275" s="4"/>
-      <c r="N275" s="4"/>
-      <c r="O275" s="4"/>
-      <c r="P275" s="4"/>
+      <c r="K275" s="7"/>
+      <c r="L275" s="7"/>
+      <c r="M275" s="7"/>
+      <c r="N275" s="7"/>
+      <c r="O275" s="7"/>
+      <c r="P275" s="7"/>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -18220,12 +18220,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K276" s="4"/>
-      <c r="L276" s="4"/>
-      <c r="M276" s="4"/>
-      <c r="N276" s="4"/>
-      <c r="O276" s="4"/>
-      <c r="P276" s="4"/>
+      <c r="K276" s="7"/>
+      <c r="L276" s="7"/>
+      <c r="M276" s="7"/>
+      <c r="N276" s="7"/>
+      <c r="O276" s="7"/>
+      <c r="P276" s="7"/>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277">
@@ -18242,12 +18242,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K277" s="4"/>
-      <c r="L277" s="4"/>
-      <c r="M277" s="4"/>
-      <c r="N277" s="4"/>
-      <c r="O277" s="4"/>
-      <c r="P277" s="4"/>
+      <c r="K277" s="7"/>
+      <c r="L277" s="7"/>
+      <c r="M277" s="7"/>
+      <c r="N277" s="7"/>
+      <c r="O277" s="7"/>
+      <c r="P277" s="7"/>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -18264,12 +18264,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K278" s="4"/>
-      <c r="L278" s="4"/>
-      <c r="M278" s="4"/>
-      <c r="N278" s="4"/>
-      <c r="O278" s="4"/>
-      <c r="P278" s="4"/>
+      <c r="K278" s="7"/>
+      <c r="L278" s="7"/>
+      <c r="M278" s="7"/>
+      <c r="N278" s="7"/>
+      <c r="O278" s="7"/>
+      <c r="P278" s="7"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279">
@@ -18286,12 +18286,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K279" s="4"/>
-      <c r="L279" s="4"/>
-      <c r="M279" s="4"/>
-      <c r="N279" s="4"/>
-      <c r="O279" s="4"/>
-      <c r="P279" s="4"/>
+      <c r="K279" s="7"/>
+      <c r="L279" s="7"/>
+      <c r="M279" s="7"/>
+      <c r="N279" s="7"/>
+      <c r="O279" s="7"/>
+      <c r="P279" s="7"/>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280">
@@ -18308,12 +18308,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K280" s="4"/>
-      <c r="L280" s="4"/>
-      <c r="M280" s="4"/>
-      <c r="N280" s="4"/>
-      <c r="O280" s="4"/>
-      <c r="P280" s="4"/>
+      <c r="K280" s="7"/>
+      <c r="L280" s="7"/>
+      <c r="M280" s="7"/>
+      <c r="N280" s="7"/>
+      <c r="O280" s="7"/>
+      <c r="P280" s="7"/>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281">
@@ -18330,12 +18330,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K281" s="4"/>
-      <c r="L281" s="4"/>
-      <c r="M281" s="4"/>
-      <c r="N281" s="4"/>
-      <c r="O281" s="4"/>
-      <c r="P281" s="4"/>
+      <c r="K281" s="7"/>
+      <c r="L281" s="7"/>
+      <c r="M281" s="7"/>
+      <c r="N281" s="7"/>
+      <c r="O281" s="7"/>
+      <c r="P281" s="7"/>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282">
@@ -18352,12 +18352,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K282" s="4"/>
-      <c r="L282" s="4"/>
-      <c r="M282" s="4"/>
-      <c r="N282" s="4"/>
-      <c r="O282" s="4"/>
-      <c r="P282" s="4"/>
+      <c r="K282" s="7"/>
+      <c r="L282" s="7"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="7"/>
+      <c r="O282" s="7"/>
+      <c r="P282" s="7"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283">
@@ -18374,12 +18374,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K283" s="4"/>
-      <c r="L283" s="4"/>
-      <c r="M283" s="4"/>
-      <c r="N283" s="4"/>
-      <c r="O283" s="4"/>
-      <c r="P283" s="4"/>
+      <c r="K283" s="7"/>
+      <c r="L283" s="7"/>
+      <c r="M283" s="7"/>
+      <c r="N283" s="7"/>
+      <c r="O283" s="7"/>
+      <c r="P283" s="7"/>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -18396,12 +18396,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K284" s="4"/>
-      <c r="L284" s="4"/>
-      <c r="M284" s="4"/>
-      <c r="N284" s="4"/>
-      <c r="O284" s="4"/>
-      <c r="P284" s="4"/>
+      <c r="K284" s="7"/>
+      <c r="L284" s="7"/>
+      <c r="M284" s="7"/>
+      <c r="N284" s="7"/>
+      <c r="O284" s="7"/>
+      <c r="P284" s="7"/>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285">
@@ -18418,12 +18418,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K285" s="4"/>
-      <c r="L285" s="4"/>
-      <c r="M285" s="4"/>
-      <c r="N285" s="4"/>
-      <c r="O285" s="4"/>
-      <c r="P285" s="4"/>
+      <c r="K285" s="7"/>
+      <c r="L285" s="7"/>
+      <c r="M285" s="7"/>
+      <c r="N285" s="7"/>
+      <c r="O285" s="7"/>
+      <c r="P285" s="7"/>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -18440,12 +18440,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K286" s="4"/>
-      <c r="L286" s="4"/>
-      <c r="M286" s="4"/>
-      <c r="N286" s="4"/>
-      <c r="O286" s="4"/>
-      <c r="P286" s="4"/>
+      <c r="K286" s="7"/>
+      <c r="L286" s="7"/>
+      <c r="M286" s="7"/>
+      <c r="N286" s="7"/>
+      <c r="O286" s="7"/>
+      <c r="P286" s="7"/>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -18462,12 +18462,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K287" s="4"/>
-      <c r="L287" s="4"/>
-      <c r="M287" s="4"/>
-      <c r="N287" s="4"/>
-      <c r="O287" s="4"/>
-      <c r="P287" s="4"/>
+      <c r="K287" s="7"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="7"/>
+      <c r="N287" s="7"/>
+      <c r="O287" s="7"/>
+      <c r="P287" s="7"/>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -18484,12 +18484,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K288" s="4"/>
-      <c r="L288" s="4"/>
-      <c r="M288" s="4"/>
-      <c r="N288" s="4"/>
-      <c r="O288" s="4"/>
-      <c r="P288" s="4"/>
+      <c r="K288" s="7"/>
+      <c r="L288" s="7"/>
+      <c r="M288" s="7"/>
+      <c r="N288" s="7"/>
+      <c r="O288" s="7"/>
+      <c r="P288" s="7"/>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289">
@@ -18506,12 +18506,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K289" s="4"/>
-      <c r="L289" s="4"/>
-      <c r="M289" s="4"/>
-      <c r="N289" s="4"/>
-      <c r="O289" s="4"/>
-      <c r="P289" s="4"/>
+      <c r="K289" s="7"/>
+      <c r="L289" s="7"/>
+      <c r="M289" s="7"/>
+      <c r="N289" s="7"/>
+      <c r="O289" s="7"/>
+      <c r="P289" s="7"/>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290">
@@ -18528,12 +18528,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K290" s="4"/>
-      <c r="L290" s="4"/>
-      <c r="M290" s="4"/>
-      <c r="N290" s="4"/>
-      <c r="O290" s="4"/>
-      <c r="P290" s="4"/>
+      <c r="K290" s="7"/>
+      <c r="L290" s="7"/>
+      <c r="M290" s="7"/>
+      <c r="N290" s="7"/>
+      <c r="O290" s="7"/>
+      <c r="P290" s="7"/>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291">
@@ -18550,12 +18550,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K291" s="4"/>
-      <c r="L291" s="4"/>
-      <c r="M291" s="4"/>
-      <c r="N291" s="4"/>
-      <c r="O291" s="4"/>
-      <c r="P291" s="4"/>
+      <c r="K291" s="7"/>
+      <c r="L291" s="7"/>
+      <c r="M291" s="7"/>
+      <c r="N291" s="7"/>
+      <c r="O291" s="7"/>
+      <c r="P291" s="7"/>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292">
@@ -18572,12 +18572,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K292" s="4"/>
-      <c r="L292" s="4"/>
-      <c r="M292" s="4"/>
-      <c r="N292" s="4"/>
-      <c r="O292" s="4"/>
-      <c r="P292" s="4"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="7"/>
+      <c r="N292" s="7"/>
+      <c r="O292" s="7"/>
+      <c r="P292" s="7"/>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293">
@@ -18594,12 +18594,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K293" s="4"/>
-      <c r="L293" s="4"/>
-      <c r="M293" s="4"/>
-      <c r="N293" s="4"/>
-      <c r="O293" s="4"/>
-      <c r="P293" s="4"/>
+      <c r="K293" s="7"/>
+      <c r="L293" s="7"/>
+      <c r="M293" s="7"/>
+      <c r="N293" s="7"/>
+      <c r="O293" s="7"/>
+      <c r="P293" s="7"/>
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294">
@@ -18616,12 +18616,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K294" s="4"/>
-      <c r="L294" s="4"/>
-      <c r="M294" s="4"/>
-      <c r="N294" s="4"/>
-      <c r="O294" s="4"/>
-      <c r="P294" s="4"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="7"/>
+      <c r="N294" s="7"/>
+      <c r="O294" s="7"/>
+      <c r="P294" s="7"/>
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295">
@@ -18638,12 +18638,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K295" s="4"/>
-      <c r="L295" s="4"/>
-      <c r="M295" s="4"/>
-      <c r="N295" s="4"/>
-      <c r="O295" s="4"/>
-      <c r="P295" s="4"/>
+      <c r="K295" s="7"/>
+      <c r="L295" s="7"/>
+      <c r="M295" s="7"/>
+      <c r="N295" s="7"/>
+      <c r="O295" s="7"/>
+      <c r="P295" s="7"/>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296">
@@ -18660,12 +18660,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K296" s="4"/>
-      <c r="L296" s="4"/>
-      <c r="M296" s="4"/>
-      <c r="N296" s="4"/>
-      <c r="O296" s="4"/>
-      <c r="P296" s="4"/>
+      <c r="K296" s="7"/>
+      <c r="L296" s="7"/>
+      <c r="M296" s="7"/>
+      <c r="N296" s="7"/>
+      <c r="O296" s="7"/>
+      <c r="P296" s="7"/>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297">
@@ -18682,12 +18682,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K297" s="4"/>
-      <c r="L297" s="4"/>
-      <c r="M297" s="4"/>
-      <c r="N297" s="4"/>
-      <c r="O297" s="4"/>
-      <c r="P297" s="4"/>
+      <c r="K297" s="7"/>
+      <c r="L297" s="7"/>
+      <c r="M297" s="7"/>
+      <c r="N297" s="7"/>
+      <c r="O297" s="7"/>
+      <c r="P297" s="7"/>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298">
@@ -18704,12 +18704,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K298" s="4"/>
-      <c r="L298" s="4"/>
-      <c r="M298" s="4"/>
-      <c r="N298" s="4"/>
-      <c r="O298" s="4"/>
-      <c r="P298" s="4"/>
+      <c r="K298" s="7"/>
+      <c r="L298" s="7"/>
+      <c r="M298" s="7"/>
+      <c r="N298" s="7"/>
+      <c r="O298" s="7"/>
+      <c r="P298" s="7"/>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299">
@@ -18726,12 +18726,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K299" s="4"/>
-      <c r="L299" s="4"/>
-      <c r="M299" s="4"/>
-      <c r="N299" s="4"/>
-      <c r="O299" s="4"/>
-      <c r="P299" s="4"/>
+      <c r="K299" s="7"/>
+      <c r="L299" s="7"/>
+      <c r="M299" s="7"/>
+      <c r="N299" s="7"/>
+      <c r="O299" s="7"/>
+      <c r="P299" s="7"/>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300">
@@ -18748,12 +18748,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K300" s="4"/>
-      <c r="L300" s="4"/>
-      <c r="M300" s="4"/>
-      <c r="N300" s="4"/>
-      <c r="O300" s="4"/>
-      <c r="P300" s="4"/>
+      <c r="K300" s="7"/>
+      <c r="L300" s="7"/>
+      <c r="M300" s="7"/>
+      <c r="N300" s="7"/>
+      <c r="O300" s="7"/>
+      <c r="P300" s="7"/>
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301">
@@ -18770,12 +18770,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K301" s="4"/>
-      <c r="L301" s="4"/>
-      <c r="M301" s="4"/>
-      <c r="N301" s="4"/>
-      <c r="O301" s="4"/>
-      <c r="P301" s="4"/>
+      <c r="K301" s="7"/>
+      <c r="L301" s="7"/>
+      <c r="M301" s="7"/>
+      <c r="N301" s="7"/>
+      <c r="O301" s="7"/>
+      <c r="P301" s="7"/>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302">
@@ -18792,14 +18792,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K302" s="4" t="s">
+      <c r="K302" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="L302" s="4"/>
-      <c r="M302" s="4"/>
-      <c r="N302" s="4"/>
-      <c r="O302" s="4"/>
-      <c r="P302" s="4"/>
+      <c r="L302" s="7"/>
+      <c r="M302" s="7"/>
+      <c r="N302" s="7"/>
+      <c r="O302" s="7"/>
+      <c r="P302" s="7"/>
       <c r="Q302">
         <f>SUM(J302:J331)/30</f>
         <v>0</v>
@@ -18820,12 +18820,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K303" s="4"/>
-      <c r="L303" s="4"/>
-      <c r="M303" s="4"/>
-      <c r="N303" s="4"/>
-      <c r="O303" s="4"/>
-      <c r="P303" s="4"/>
+      <c r="K303" s="7"/>
+      <c r="L303" s="7"/>
+      <c r="M303" s="7"/>
+      <c r="N303" s="7"/>
+      <c r="O303" s="7"/>
+      <c r="P303" s="7"/>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -18842,12 +18842,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K304" s="4"/>
-      <c r="L304" s="4"/>
-      <c r="M304" s="4"/>
-      <c r="N304" s="4"/>
-      <c r="O304" s="4"/>
-      <c r="P304" s="4"/>
+      <c r="K304" s="7"/>
+      <c r="L304" s="7"/>
+      <c r="M304" s="7"/>
+      <c r="N304" s="7"/>
+      <c r="O304" s="7"/>
+      <c r="P304" s="7"/>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305">
@@ -18864,12 +18864,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K305" s="4"/>
-      <c r="L305" s="4"/>
-      <c r="M305" s="4"/>
-      <c r="N305" s="4"/>
-      <c r="O305" s="4"/>
-      <c r="P305" s="4"/>
+      <c r="K305" s="7"/>
+      <c r="L305" s="7"/>
+      <c r="M305" s="7"/>
+      <c r="N305" s="7"/>
+      <c r="O305" s="7"/>
+      <c r="P305" s="7"/>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306">
@@ -18886,12 +18886,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K306" s="4"/>
-      <c r="L306" s="4"/>
-      <c r="M306" s="4"/>
-      <c r="N306" s="4"/>
-      <c r="O306" s="4"/>
-      <c r="P306" s="4"/>
+      <c r="K306" s="7"/>
+      <c r="L306" s="7"/>
+      <c r="M306" s="7"/>
+      <c r="N306" s="7"/>
+      <c r="O306" s="7"/>
+      <c r="P306" s="7"/>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307">
@@ -18908,12 +18908,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K307" s="4"/>
-      <c r="L307" s="4"/>
-      <c r="M307" s="4"/>
-      <c r="N307" s="4"/>
-      <c r="O307" s="4"/>
-      <c r="P307" s="4"/>
+      <c r="K307" s="7"/>
+      <c r="L307" s="7"/>
+      <c r="M307" s="7"/>
+      <c r="N307" s="7"/>
+      <c r="O307" s="7"/>
+      <c r="P307" s="7"/>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308">
@@ -18930,12 +18930,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K308" s="4"/>
-      <c r="L308" s="4"/>
-      <c r="M308" s="4"/>
-      <c r="N308" s="4"/>
-      <c r="O308" s="4"/>
-      <c r="P308" s="4"/>
+      <c r="K308" s="7"/>
+      <c r="L308" s="7"/>
+      <c r="M308" s="7"/>
+      <c r="N308" s="7"/>
+      <c r="O308" s="7"/>
+      <c r="P308" s="7"/>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309">
@@ -18952,12 +18952,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K309" s="4"/>
-      <c r="L309" s="4"/>
-      <c r="M309" s="4"/>
-      <c r="N309" s="4"/>
-      <c r="O309" s="4"/>
-      <c r="P309" s="4"/>
+      <c r="K309" s="7"/>
+      <c r="L309" s="7"/>
+      <c r="M309" s="7"/>
+      <c r="N309" s="7"/>
+      <c r="O309" s="7"/>
+      <c r="P309" s="7"/>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310">
@@ -18974,12 +18974,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K310" s="4"/>
-      <c r="L310" s="4"/>
-      <c r="M310" s="4"/>
-      <c r="N310" s="4"/>
-      <c r="O310" s="4"/>
-      <c r="P310" s="4"/>
+      <c r="K310" s="7"/>
+      <c r="L310" s="7"/>
+      <c r="M310" s="7"/>
+      <c r="N310" s="7"/>
+      <c r="O310" s="7"/>
+      <c r="P310" s="7"/>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311">
@@ -18996,12 +18996,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K311" s="4"/>
-      <c r="L311" s="4"/>
-      <c r="M311" s="4"/>
-      <c r="N311" s="4"/>
-      <c r="O311" s="4"/>
-      <c r="P311" s="4"/>
+      <c r="K311" s="7"/>
+      <c r="L311" s="7"/>
+      <c r="M311" s="7"/>
+      <c r="N311" s="7"/>
+      <c r="O311" s="7"/>
+      <c r="P311" s="7"/>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312">
@@ -19018,12 +19018,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K312" s="4"/>
-      <c r="L312" s="4"/>
-      <c r="M312" s="4"/>
-      <c r="N312" s="4"/>
-      <c r="O312" s="4"/>
-      <c r="P312" s="4"/>
+      <c r="K312" s="7"/>
+      <c r="L312" s="7"/>
+      <c r="M312" s="7"/>
+      <c r="N312" s="7"/>
+      <c r="O312" s="7"/>
+      <c r="P312" s="7"/>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313">
@@ -19040,12 +19040,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K313" s="4"/>
-      <c r="L313" s="4"/>
-      <c r="M313" s="4"/>
-      <c r="N313" s="4"/>
-      <c r="O313" s="4"/>
-      <c r="P313" s="4"/>
+      <c r="K313" s="7"/>
+      <c r="L313" s="7"/>
+      <c r="M313" s="7"/>
+      <c r="N313" s="7"/>
+      <c r="O313" s="7"/>
+      <c r="P313" s="7"/>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -19062,12 +19062,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K314" s="4"/>
-      <c r="L314" s="4"/>
-      <c r="M314" s="4"/>
-      <c r="N314" s="4"/>
-      <c r="O314" s="4"/>
-      <c r="P314" s="4"/>
+      <c r="K314" s="7"/>
+      <c r="L314" s="7"/>
+      <c r="M314" s="7"/>
+      <c r="N314" s="7"/>
+      <c r="O314" s="7"/>
+      <c r="P314" s="7"/>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315">
@@ -19084,12 +19084,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K315" s="4"/>
-      <c r="L315" s="4"/>
-      <c r="M315" s="4"/>
-      <c r="N315" s="4"/>
-      <c r="O315" s="4"/>
-      <c r="P315" s="4"/>
+      <c r="K315" s="7"/>
+      <c r="L315" s="7"/>
+      <c r="M315" s="7"/>
+      <c r="N315" s="7"/>
+      <c r="O315" s="7"/>
+      <c r="P315" s="7"/>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316">
@@ -19106,12 +19106,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K316" s="4"/>
-      <c r="L316" s="4"/>
-      <c r="M316" s="4"/>
-      <c r="N316" s="4"/>
-      <c r="O316" s="4"/>
-      <c r="P316" s="4"/>
+      <c r="K316" s="7"/>
+      <c r="L316" s="7"/>
+      <c r="M316" s="7"/>
+      <c r="N316" s="7"/>
+      <c r="O316" s="7"/>
+      <c r="P316" s="7"/>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317">
@@ -19128,12 +19128,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K317" s="4"/>
-      <c r="L317" s="4"/>
-      <c r="M317" s="4"/>
-      <c r="N317" s="4"/>
-      <c r="O317" s="4"/>
-      <c r="P317" s="4"/>
+      <c r="K317" s="7"/>
+      <c r="L317" s="7"/>
+      <c r="M317" s="7"/>
+      <c r="N317" s="7"/>
+      <c r="O317" s="7"/>
+      <c r="P317" s="7"/>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318">
@@ -19150,12 +19150,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K318" s="4"/>
-      <c r="L318" s="4"/>
-      <c r="M318" s="4"/>
-      <c r="N318" s="4"/>
-      <c r="O318" s="4"/>
-      <c r="P318" s="4"/>
+      <c r="K318" s="7"/>
+      <c r="L318" s="7"/>
+      <c r="M318" s="7"/>
+      <c r="N318" s="7"/>
+      <c r="O318" s="7"/>
+      <c r="P318" s="7"/>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319">
@@ -19172,12 +19172,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K319" s="4"/>
-      <c r="L319" s="4"/>
-      <c r="M319" s="4"/>
-      <c r="N319" s="4"/>
-      <c r="O319" s="4"/>
-      <c r="P319" s="4"/>
+      <c r="K319" s="7"/>
+      <c r="L319" s="7"/>
+      <c r="M319" s="7"/>
+      <c r="N319" s="7"/>
+      <c r="O319" s="7"/>
+      <c r="P319" s="7"/>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -19194,12 +19194,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K320" s="4"/>
-      <c r="L320" s="4"/>
-      <c r="M320" s="4"/>
-      <c r="N320" s="4"/>
-      <c r="O320" s="4"/>
-      <c r="P320" s="4"/>
+      <c r="K320" s="7"/>
+      <c r="L320" s="7"/>
+      <c r="M320" s="7"/>
+      <c r="N320" s="7"/>
+      <c r="O320" s="7"/>
+      <c r="P320" s="7"/>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321">
@@ -19216,12 +19216,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K321" s="4"/>
-      <c r="L321" s="4"/>
-      <c r="M321" s="4"/>
-      <c r="N321" s="4"/>
-      <c r="O321" s="4"/>
-      <c r="P321" s="4"/>
+      <c r="K321" s="7"/>
+      <c r="L321" s="7"/>
+      <c r="M321" s="7"/>
+      <c r="N321" s="7"/>
+      <c r="O321" s="7"/>
+      <c r="P321" s="7"/>
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322">
@@ -19238,12 +19238,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K322" s="4"/>
-      <c r="L322" s="4"/>
-      <c r="M322" s="4"/>
-      <c r="N322" s="4"/>
-      <c r="O322" s="4"/>
-      <c r="P322" s="4"/>
+      <c r="K322" s="7"/>
+      <c r="L322" s="7"/>
+      <c r="M322" s="7"/>
+      <c r="N322" s="7"/>
+      <c r="O322" s="7"/>
+      <c r="P322" s="7"/>
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323">
@@ -19260,12 +19260,12 @@
         <f t="shared" ref="J323:J386" si="11">D323+E323+F323+G323+H323+I323</f>
         <v>0</v>
       </c>
-      <c r="K323" s="4"/>
-      <c r="L323" s="4"/>
-      <c r="M323" s="4"/>
-      <c r="N323" s="4"/>
-      <c r="O323" s="4"/>
-      <c r="P323" s="4"/>
+      <c r="K323" s="7"/>
+      <c r="L323" s="7"/>
+      <c r="M323" s="7"/>
+      <c r="N323" s="7"/>
+      <c r="O323" s="7"/>
+      <c r="P323" s="7"/>
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324">
@@ -19282,12 +19282,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K324" s="4"/>
-      <c r="L324" s="4"/>
-      <c r="M324" s="4"/>
-      <c r="N324" s="4"/>
-      <c r="O324" s="4"/>
-      <c r="P324" s="4"/>
+      <c r="K324" s="7"/>
+      <c r="L324" s="7"/>
+      <c r="M324" s="7"/>
+      <c r="N324" s="7"/>
+      <c r="O324" s="7"/>
+      <c r="P324" s="7"/>
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325">
@@ -19304,12 +19304,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K325" s="4"/>
-      <c r="L325" s="4"/>
-      <c r="M325" s="4"/>
-      <c r="N325" s="4"/>
-      <c r="O325" s="4"/>
-      <c r="P325" s="4"/>
+      <c r="K325" s="7"/>
+      <c r="L325" s="7"/>
+      <c r="M325" s="7"/>
+      <c r="N325" s="7"/>
+      <c r="O325" s="7"/>
+      <c r="P325" s="7"/>
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326">
@@ -19326,12 +19326,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K326" s="4"/>
-      <c r="L326" s="4"/>
-      <c r="M326" s="4"/>
-      <c r="N326" s="4"/>
-      <c r="O326" s="4"/>
-      <c r="P326" s="4"/>
+      <c r="K326" s="7"/>
+      <c r="L326" s="7"/>
+      <c r="M326" s="7"/>
+      <c r="N326" s="7"/>
+      <c r="O326" s="7"/>
+      <c r="P326" s="7"/>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327">
@@ -19348,12 +19348,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K327" s="4"/>
-      <c r="L327" s="4"/>
-      <c r="M327" s="4"/>
-      <c r="N327" s="4"/>
-      <c r="O327" s="4"/>
-      <c r="P327" s="4"/>
+      <c r="K327" s="7"/>
+      <c r="L327" s="7"/>
+      <c r="M327" s="7"/>
+      <c r="N327" s="7"/>
+      <c r="O327" s="7"/>
+      <c r="P327" s="7"/>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328">
@@ -19370,12 +19370,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K328" s="4"/>
-      <c r="L328" s="4"/>
-      <c r="M328" s="4"/>
-      <c r="N328" s="4"/>
-      <c r="O328" s="4"/>
-      <c r="P328" s="4"/>
+      <c r="K328" s="7"/>
+      <c r="L328" s="7"/>
+      <c r="M328" s="7"/>
+      <c r="N328" s="7"/>
+      <c r="O328" s="7"/>
+      <c r="P328" s="7"/>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329">
@@ -19392,12 +19392,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K329" s="4"/>
-      <c r="L329" s="4"/>
-      <c r="M329" s="4"/>
-      <c r="N329" s="4"/>
-      <c r="O329" s="4"/>
-      <c r="P329" s="4"/>
+      <c r="K329" s="7"/>
+      <c r="L329" s="7"/>
+      <c r="M329" s="7"/>
+      <c r="N329" s="7"/>
+      <c r="O329" s="7"/>
+      <c r="P329" s="7"/>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330">
@@ -19414,12 +19414,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K330" s="4"/>
-      <c r="L330" s="4"/>
-      <c r="M330" s="4"/>
-      <c r="N330" s="4"/>
-      <c r="O330" s="4"/>
-      <c r="P330" s="4"/>
+      <c r="K330" s="7"/>
+      <c r="L330" s="7"/>
+      <c r="M330" s="7"/>
+      <c r="N330" s="7"/>
+      <c r="O330" s="7"/>
+      <c r="P330" s="7"/>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331">
@@ -19436,12 +19436,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K331" s="4"/>
-      <c r="L331" s="4"/>
-      <c r="M331" s="4"/>
-      <c r="N331" s="4"/>
-      <c r="O331" s="4"/>
-      <c r="P331" s="4"/>
+      <c r="K331" s="7"/>
+      <c r="L331" s="7"/>
+      <c r="M331" s="7"/>
+      <c r="N331" s="7"/>
+      <c r="O331" s="7"/>
+      <c r="P331" s="7"/>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332">
@@ -19533,7 +19533,7 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B334" s="3" t="s">
         <v>739</v>
       </c>
       <c r="C334">
@@ -19573,7 +19573,7 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="3" t="s">
         <v>740</v>
       </c>
       <c r="C335">
@@ -19613,7 +19613,7 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="3" t="s">
         <v>741</v>
       </c>
       <c r="C336">
@@ -19653,7 +19653,7 @@
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="3" t="s">
         <v>742</v>
       </c>
       <c r="C337">
@@ -19693,7 +19693,7 @@
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="3" t="s">
         <v>743</v>
       </c>
       <c r="C338">
@@ -19733,7 +19733,7 @@
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C339">
@@ -19773,7 +19773,7 @@
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="3" t="s">
         <v>745</v>
       </c>
       <c r="C340">
@@ -19813,7 +19813,7 @@
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="3" t="s">
         <v>746</v>
       </c>
       <c r="C341">
@@ -20093,7 +20093,7 @@
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="3" t="s">
         <v>753</v>
       </c>
       <c r="C348">
@@ -20691,8 +20691,8 @@
       <c r="O362" s="6"/>
       <c r="P362" s="6"/>
       <c r="Q362">
-        <f>SUM(J362:J391)/30</f>
-        <v>0.73333333333333328</v>
+        <f>SUM(J361:J390)/30</f>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.25">
